--- a/Batch 2018-20/Sem 2/Grade Card - Multiple - Edit.xlsx
+++ b/Batch 2018-20/Sem 2/Grade Card - Multiple - Edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6835DC0-096C-47F0-B71A-BBB33C78AC82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0597E8A5-0F39-4427-B5A9-291E815526DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -280,20 +280,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -301,16 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -328,28 +337,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,7 +399,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2151"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2152"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -55879,219 +55879,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+      <c r="A9" s="12" t="str">
         <f>"NAME OF THE CANDIDATE : "&amp;VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>NAME OF THE CANDIDATE : /ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+      <c r="A11" s="12" t="str">
         <f>"HELD IN : "&amp;'[2]Subjects List'!$C$13</f>
         <v>HELD IN : JANUARY 2019</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="str">
+      <c r="B17" s="16" t="str">
         <f>'[2]Subjects List'!$C$4</f>
         <v>Perspective Management</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="2">
         <v>4</v>
       </c>
@@ -56115,12 +56115,12 @@
       <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="13" t="str">
+      <c r="B18" s="16" t="str">
         <f>'[2]Subjects List'!$C$5</f>
         <v>Financial Accounting</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="2">
         <v>4</v>
       </c>
@@ -56144,12 +56144,12 @@
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="str">
+      <c r="B19" s="16" t="str">
         <f>'[2]Subjects List'!$C$6</f>
         <v>Business Statistics</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="2">
         <v>4</v>
       </c>
@@ -56173,12 +56173,12 @@
       <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="13" t="str">
+      <c r="B20" s="16" t="str">
         <f>'[2]Subjects List'!$C$7</f>
         <v>Operations Management</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="2">
         <v>4</v>
       </c>
@@ -56202,12 +56202,12 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="13" t="str">
+      <c r="B21" s="16" t="str">
         <f>'[2]Subjects List'!$C$8</f>
         <v>Managerial Economics</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="2">
         <v>4</v>
       </c>
@@ -56231,12 +56231,12 @@
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="13" t="str">
+      <c r="B22" s="16" t="str">
         <f>'[2]Subjects List'!$C$9</f>
         <v>Effective and Management Communication</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2">
         <v>4</v>
       </c>
@@ -56260,12 +56260,12 @@
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="13" t="str">
+      <c r="B23" s="16" t="str">
         <f>'[2]Subjects List'!$C$10</f>
         <v>Negotiation and Selling Skills</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="2">
         <v>4</v>
       </c>
@@ -56289,12 +56289,12 @@
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="13" t="str">
+      <c r="B24" s="16" t="str">
         <f>'[2]Subjects List'!$C$11</f>
         <v>Organisational Behaviour</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="2">
         <v>4</v>
       </c>
@@ -56316,11 +56316,11 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="4">
@@ -56334,46 +56334,46 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="str">
+      <c r="A26" s="22" t="str">
         <f>"Remark    :  "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BM$122,65,0)</f>
         <v>Remark    :  Unsuccessful</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22" t="str">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="10" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BN$122,66,0)</f>
         <v>SGPI : 5.25</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22" t="str">
+      <c r="F26" s="11"/>
+      <c r="G26" s="10" t="str">
         <f>"Overall Grade : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BO$122,67,0)</f>
         <v>Overall Grade : C</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="29" t="str">
+      <c r="H26" s="11"/>
+      <c r="I26" s="7" t="str">
         <f>"Range : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range : 55-59.99</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26" t="str">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="str">
         <f>'[2]Subjects List'!$C$15</f>
         <v>10/02/2019</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="15" t="str">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="19" t="str">
         <f>"SGPI (SEM I) : "&amp;VLOOKUP(D13,'[4]Subject Marks'!$A$3:$BN$135,66,0)</f>
         <v>SGPI (SEM I) : 5.25</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -56382,16 +56382,16 @@
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -56399,41 +56399,63 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="aIO4XRH6u6j5P5js13fF5invG0FOHRdbsnNlOPaXb3eWbq/CS2vrGNNYHzb3t8kjmjJy4enoocly/MQc+IWurA==" saltValue="5h/5MbTb7Cs9aEbnMz7bWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D13" name="Seat No."/>
   </protectedRanges>
   <mergeCells count="37">
+    <mergeCell ref="A1:I7"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H8:I13"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G26:H26"/>
@@ -56450,27 +56472,6 @@
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A1:I7"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H8:I13"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <pageMargins left="0.69" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
